--- a/poverty_measurement/output/precios_implicitos.xlsx
+++ b/poverty_measurement/output/precios_implicitos.xlsx
@@ -164,7 +164,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>65</v>
+        <v>66.333335876464844</v>
       </c>
     </row>
     <row r="3">
@@ -212,7 +212,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>89.5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9">
@@ -220,7 +220,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>172.68904113769531</v>
+        <v>175</v>
       </c>
     </row>
     <row r="10">
@@ -300,7 +300,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20">
@@ -308,7 +308,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1">
-        <v>60.2205810546875</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21">
@@ -324,7 +324,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="1">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23">
@@ -332,7 +332,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24">
@@ -372,7 +372,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="1">
-        <v>240</v>
+        <v>230</v>
       </c>
     </row>
     <row r="29">

--- a/poverty_measurement/output/precios_implicitos.xlsx
+++ b/poverty_measurement/output/precios_implicitos.xlsx
@@ -164,7 +164,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>66.333335876464844</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3">
@@ -220,7 +220,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="10">
@@ -324,7 +324,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="1">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23">
@@ -332,7 +332,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24">
@@ -372,7 +372,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="1">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="29">

--- a/poverty_measurement/output/precios_implicitos.xlsx
+++ b/poverty_measurement/output/precios_implicitos.xlsx
@@ -188,7 +188,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6">
@@ -212,7 +212,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>100</v>
+        <v>96.068794250488281</v>
       </c>
     </row>
     <row r="9">
@@ -220,7 +220,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>177</v>
+        <v>172.68904113769531</v>
       </c>
     </row>
     <row r="10">
@@ -300,7 +300,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1">
-        <v>75</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20">
@@ -308,7 +308,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21">
@@ -324,7 +324,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="1">
-        <v>95</v>
+        <v>94.5</v>
       </c>
     </row>
     <row r="23">
@@ -332,7 +332,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24">
@@ -372,7 +372,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="1">
-        <v>232</v>
+        <v>240</v>
       </c>
     </row>
     <row r="29">
@@ -380,7 +380,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="1">
-        <v>38</v>
+        <v>37.5</v>
       </c>
     </row>
   </sheetData>

--- a/poverty_measurement/output/precios_implicitos.xlsx
+++ b/poverty_measurement/output/precios_implicitos.xlsx
@@ -212,7 +212,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>96.068794250488281</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9">
@@ -300,7 +300,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1">
-        <v>60</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20">
@@ -308,7 +308,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1">
-        <v>60</v>
+        <v>60.2205810546875</v>
       </c>
     </row>
     <row r="21">
@@ -324,7 +324,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="1">
-        <v>94.5</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23">
@@ -380,7 +380,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="1">
-        <v>37.5</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/poverty_measurement/output/precios_implicitos.xlsx
+++ b/poverty_measurement/output/precios_implicitos.xlsx
@@ -300,7 +300,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20">
@@ -308,7 +308,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1">
-        <v>60.2205810546875</v>
+        <v>60.441165924072266</v>
       </c>
     </row>
     <row r="21">
@@ -324,7 +324,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="1">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23">
@@ -380,7 +380,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
